--- a/BOM_mecanico.xlsx
+++ b/BOM_mecanico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Desktop\handson_eletrica_organizado_publico\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Development\GitHub\IMT_HandsOn_Eletrica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E8D3D6-55F2-48AB-9EA9-C7AEF6EE1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBEAAD1-0ACE-478D-B338-9FC70DA180FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF2AA590-638B-458E-B52F-097BD9FA550D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Material</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>https://www.parafusofacil.com.br/parafuso-allen/parafuso-allen-abaulado/din-7380-parafuso-allen-abaulado-ma-3-x-8-inox-304a2-classe-70-passivado-1/</t>
+  </si>
+  <si>
+    <t>https://www.robocore.net/cabo/jumpers-femea-femea-x40-unidades</t>
+  </si>
+  <si>
+    <t>Jumper Fêmea-Fêmea x2 Unidades</t>
   </si>
 </sst>
 </file>
@@ -180,12 +186,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A604ACA4-8E57-450B-8BA3-F88D8160BF54}" name="Table1" displayName="Table1" ref="B2:D10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="B2:D10" xr:uid="{A604ACA4-8E57-450B-8BA3-F88D8160BF54}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A604ACA4-8E57-450B-8BA3-F88D8160BF54}" name="Table1" displayName="Table1" ref="B2:D11" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B2:D11" xr:uid="{A604ACA4-8E57-450B-8BA3-F88D8160BF54}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{75767C84-D325-4FD2-9AD0-43BE199C0543}" name="Material" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{1BC800F5-4898-4EED-AA32-E4FEF047D663}" name="Quantidade" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{FE342064-B8B0-49E5-AA4D-A1366AA1FAB5}" name="Link" dataDxfId="2" dataCellStyle="Hyperlink"/>
+    <tableColumn id="1" xr3:uid="{75767C84-D325-4FD2-9AD0-43BE199C0543}" name="Material" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1BC800F5-4898-4EED-AA32-E4FEF047D663}" name="Quantidade" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FE342064-B8B0-49E5-AA4D-A1366AA1FAB5}" name="Link" dataDxfId="0" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFABEA7-90BD-49DC-8E20-F735D68D4035}">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,96 +529,108 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{2AAE92BF-D0C7-4593-8C43-46F13E4762A1}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{6933BC4E-1CE7-444C-9518-FBB2BB8B31E0}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{E7491ABA-5BCA-42D1-925C-2AAFF9F27D6B}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{2EA188B9-1E2E-4F4A-B5E6-CA5746BE9574}"/>
-    <hyperlink ref="D7" r:id="rId5" xr:uid="{D075C04D-0FD8-4AA7-A445-C73DEDE636FC}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{4F1A4D12-09F2-4E2E-BBDD-D78B6D315A5A}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{26A9509E-9ECB-4280-AA76-7403191FD7DA}"/>
-    <hyperlink ref="D10" r:id="rId8" xr:uid="{8C7B1233-5B02-43DA-8040-B05F3E45A828}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{6933BC4E-1CE7-444C-9518-FBB2BB8B31E0}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{E7491ABA-5BCA-42D1-925C-2AAFF9F27D6B}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{2EA188B9-1E2E-4F4A-B5E6-CA5746BE9574}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{D075C04D-0FD8-4AA7-A445-C73DEDE636FC}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{4F1A4D12-09F2-4E2E-BBDD-D78B6D315A5A}"/>
+    <hyperlink ref="D10" r:id="rId7" xr:uid="{26A9509E-9ECB-4280-AA76-7403191FD7DA}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{8C7B1233-5B02-43DA-8040-B05F3E45A828}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{C9573A63-F695-4413-AA7F-CCAE38F85240}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>